--- a/Py/get_html/Tools/Price.xlsx
+++ b/Py/get_html/Tools/Price.xlsx
@@ -1,239 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18900" windowHeight="8655"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="18900" windowHeight="8655" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Price_TD" sheetId="1" r:id="rId1"/>
+    <sheet name="Price_TD" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Price_TD</t>
-  </si>
-  <si>
-    <t>BTCB</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>USDT</t>
-  </si>
-  <si>
-    <t>BNB</t>
-  </si>
-  <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>USDC</t>
-  </si>
-  <si>
-    <t>WBTC</t>
-  </si>
-  <si>
-    <t>AVAX</t>
-  </si>
-  <si>
-    <t>DAI</t>
-  </si>
-  <si>
-    <t>MATIC</t>
-  </si>
-  <si>
-    <t>WETH</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -533,159 +471,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -931,7 +869,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -940,7 +878,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -953,11 +891,74 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1209,117 +1210,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.026548672566371" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.53097345132743" style="1" customWidth="1"/>
+    <col width="7.53097345132743" customWidth="1" style="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Token</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Price_TD</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>59597.88</v>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>BTCB</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>57382.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2715.83</v>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2568.84</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>USDT</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.9996</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>519.21</v>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>515.51</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>145.7</v>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>141.96</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.9993</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>59605.42</v>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>WBTC</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>57336.4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>21.22</v>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>AVAX</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>20.15</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>DAI</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.9979</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>0.4233</v>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>MATIC</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>2590.46</v>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>WETH</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2570.59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>